--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.67411160865158</v>
+        <v>6.899291333333333</v>
       </c>
       <c r="H2">
-        <v>5.67411160865158</v>
+        <v>20.697874</v>
       </c>
       <c r="I2">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="J2">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.190798707248311</v>
+        <v>0.8192526666666667</v>
       </c>
       <c r="N2">
-        <v>9.190798707248311</v>
+        <v>2.457758</v>
       </c>
       <c r="O2">
-        <v>0.4739676805466714</v>
+        <v>0.03935738656594369</v>
       </c>
       <c r="P2">
-        <v>0.4739676805466714</v>
+        <v>0.03935738656594368</v>
       </c>
       <c r="Q2">
-        <v>52.14961763757757</v>
+        <v>5.652262822943556</v>
       </c>
       <c r="R2">
-        <v>52.14961763757757</v>
+        <v>50.870365406492</v>
       </c>
       <c r="S2">
-        <v>0.07131283961020893</v>
+        <v>0.006748765392358879</v>
       </c>
       <c r="T2">
-        <v>0.07131283961020893</v>
+        <v>0.006748765392358878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.67411160865158</v>
+        <v>6.899291333333333</v>
       </c>
       <c r="H3">
-        <v>5.67411160865158</v>
+        <v>20.697874</v>
       </c>
       <c r="I3">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="J3">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.2003941619526</v>
+        <v>9.221608999999999</v>
       </c>
       <c r="N3">
-        <v>10.2003941619526</v>
+        <v>27.664827</v>
       </c>
       <c r="O3">
-        <v>0.5260323194533285</v>
+        <v>0.4430115945178313</v>
       </c>
       <c r="P3">
-        <v>0.5260323194533285</v>
+        <v>0.4430115945178313</v>
       </c>
       <c r="Q3">
-        <v>57.87817492715705</v>
+        <v>63.62256705308866</v>
       </c>
       <c r="R3">
-        <v>57.87817492715705</v>
+        <v>572.603103477798</v>
       </c>
       <c r="S3">
-        <v>0.07914644809471882</v>
+        <v>0.07596493513323749</v>
       </c>
       <c r="T3">
-        <v>0.07914644809471882</v>
+        <v>0.07596493513323747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.3252857026496</v>
+        <v>6.899291333333333</v>
       </c>
       <c r="H4">
-        <v>9.3252857026496</v>
+        <v>20.697874</v>
       </c>
       <c r="I4">
-        <v>0.2472767441384606</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="J4">
-        <v>0.2472767441384606</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.190798707248311</v>
+        <v>10.77486666666667</v>
       </c>
       <c r="N4">
-        <v>9.190798707248311</v>
+        <v>32.3246</v>
       </c>
       <c r="O4">
-        <v>0.4739676805466714</v>
+        <v>0.5176310189162251</v>
       </c>
       <c r="P4">
-        <v>0.4739676805466714</v>
+        <v>0.517631018916225</v>
       </c>
       <c r="Q4">
-        <v>85.7068237806331</v>
+        <v>74.33894421115556</v>
       </c>
       <c r="R4">
-        <v>85.7068237806331</v>
+        <v>669.0504979004</v>
       </c>
       <c r="S4">
-        <v>0.1172011848724389</v>
+        <v>0.08876022041301213</v>
       </c>
       <c r="T4">
-        <v>0.1172011848724389</v>
+        <v>0.08876022041301211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.3252857026496</v>
+        <v>9.535088</v>
       </c>
       <c r="H5">
-        <v>9.3252857026496</v>
+        <v>28.605264</v>
       </c>
       <c r="I5">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="J5">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>10.2003941619526</v>
+        <v>0.8192526666666667</v>
       </c>
       <c r="N5">
-        <v>10.2003941619526</v>
+        <v>2.457758</v>
       </c>
       <c r="O5">
-        <v>0.5260323194533285</v>
+        <v>0.03935738656594369</v>
       </c>
       <c r="P5">
-        <v>0.5260323194533285</v>
+        <v>0.03935738656594368</v>
       </c>
       <c r="Q5">
-        <v>95.12158983984703</v>
+        <v>7.811646270901334</v>
       </c>
       <c r="R5">
-        <v>95.12158983984703</v>
+        <v>70.304816438112</v>
       </c>
       <c r="S5">
-        <v>0.1300755592660217</v>
+        <v>0.009327055316043054</v>
       </c>
       <c r="T5">
-        <v>0.1300755592660217</v>
+        <v>0.009327055316043054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.02672108731401</v>
+        <v>9.535088</v>
       </c>
       <c r="H6">
-        <v>7.02672108731401</v>
+        <v>28.605264</v>
       </c>
       <c r="I6">
-        <v>0.1863261639207882</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="J6">
-        <v>0.1863261639207882</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.190798707248311</v>
+        <v>9.221608999999999</v>
       </c>
       <c r="N6">
-        <v>9.190798707248311</v>
+        <v>27.664827</v>
       </c>
       <c r="O6">
-        <v>0.4739676805466714</v>
+        <v>0.4430115945178313</v>
       </c>
       <c r="P6">
-        <v>0.4739676805466714</v>
+        <v>0.4430115945178313</v>
       </c>
       <c r="Q6">
-        <v>64.58117908548004</v>
+        <v>87.928853316592</v>
       </c>
       <c r="R6">
-        <v>64.58117908548004</v>
+        <v>791.3596798493279</v>
       </c>
       <c r="S6">
-        <v>0.08831257973869487</v>
+        <v>0.1049864843234205</v>
       </c>
       <c r="T6">
-        <v>0.08831257973869487</v>
+        <v>0.1049864843234205</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.02672108731401</v>
+        <v>9.535088</v>
       </c>
       <c r="H7">
-        <v>7.02672108731401</v>
+        <v>28.605264</v>
       </c>
       <c r="I7">
-        <v>0.1863261639207882</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="J7">
-        <v>0.1863261639207882</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.2003941619526</v>
+        <v>10.77486666666667</v>
       </c>
       <c r="N7">
-        <v>10.2003941619526</v>
+        <v>32.3246</v>
       </c>
       <c r="O7">
-        <v>0.5260323194533285</v>
+        <v>0.5176310189162251</v>
       </c>
       <c r="P7">
-        <v>0.5260323194533285</v>
+        <v>0.517631018916225</v>
       </c>
       <c r="Q7">
-        <v>71.67532475670704</v>
+        <v>102.7393018549333</v>
       </c>
       <c r="R7">
-        <v>71.67532475670704</v>
+        <v>924.6537166944</v>
       </c>
       <c r="S7">
-        <v>0.0980135841820933</v>
+        <v>0.1226700644526293</v>
       </c>
       <c r="T7">
-        <v>0.0980135841820933</v>
+        <v>0.1226700644526293</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.33948951786307</v>
+        <v>7.937245333333332</v>
       </c>
       <c r="H8">
-        <v>4.33948951786307</v>
+        <v>23.811736</v>
       </c>
       <c r="I8">
-        <v>0.1150693794716949</v>
+        <v>0.197271069302819</v>
       </c>
       <c r="J8">
-        <v>0.1150693794716949</v>
+        <v>0.1972710693028191</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>9.190798707248311</v>
+        <v>0.8192526666666667</v>
       </c>
       <c r="N8">
-        <v>9.190798707248311</v>
+        <v>2.457758</v>
       </c>
       <c r="O8">
-        <v>0.4739676805466714</v>
+        <v>0.03935738656594369</v>
       </c>
       <c r="P8">
-        <v>0.4739676805466714</v>
+        <v>0.03935738656594368</v>
       </c>
       <c r="Q8">
-        <v>39.8833746508935</v>
+        <v>6.502609405320888</v>
       </c>
       <c r="R8">
-        <v>39.8833746508935</v>
+        <v>58.52348464788799</v>
       </c>
       <c r="S8">
-        <v>0.05453916689014401</v>
+        <v>0.007764073732828117</v>
       </c>
       <c r="T8">
-        <v>0.05453916689014401</v>
+        <v>0.007764073732828117</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.33948951786307</v>
+        <v>7.937245333333332</v>
       </c>
       <c r="H9">
-        <v>4.33948951786307</v>
+        <v>23.811736</v>
       </c>
       <c r="I9">
-        <v>0.1150693794716949</v>
+        <v>0.197271069302819</v>
       </c>
       <c r="J9">
-        <v>0.1150693794716949</v>
+        <v>0.1972710693028191</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.2003941619526</v>
+        <v>9.221608999999999</v>
       </c>
       <c r="N9">
-        <v>10.2003941619526</v>
+        <v>27.664827</v>
       </c>
       <c r="O9">
-        <v>0.5260323194533285</v>
+        <v>0.4430115945178313</v>
       </c>
       <c r="P9">
-        <v>0.5260323194533285</v>
+        <v>0.4430115945178313</v>
       </c>
       <c r="Q9">
-        <v>44.26450354386496</v>
+        <v>73.19417300107465</v>
       </c>
       <c r="R9">
-        <v>44.26450354386496</v>
+        <v>658.7475570096718</v>
       </c>
       <c r="S9">
-        <v>0.0605302125815509</v>
+        <v>0.08739337096407948</v>
       </c>
       <c r="T9">
-        <v>0.0605302125815509</v>
+        <v>0.08739337096407948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.17437859783556</v>
+        <v>7.937245333333332</v>
       </c>
       <c r="H10">
-        <v>6.17437859783556</v>
+        <v>23.811736</v>
       </c>
       <c r="I10">
-        <v>0.1637247678446104</v>
+        <v>0.197271069302819</v>
       </c>
       <c r="J10">
-        <v>0.1637247678446104</v>
+        <v>0.1972710693028191</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.190798707248311</v>
+        <v>10.77486666666667</v>
       </c>
       <c r="N10">
-        <v>9.190798707248311</v>
+        <v>32.3246</v>
       </c>
       <c r="O10">
-        <v>0.4739676805466714</v>
+        <v>0.5176310189162251</v>
       </c>
       <c r="P10">
-        <v>0.4739676805466714</v>
+        <v>0.517631018916225</v>
       </c>
       <c r="Q10">
-        <v>56.74747083504869</v>
+        <v>85.52276016728889</v>
       </c>
       <c r="R10">
-        <v>56.74747083504869</v>
+        <v>769.7048415055999</v>
       </c>
       <c r="S10">
-        <v>0.07760024846335226</v>
+        <v>0.1021136246059115</v>
       </c>
       <c r="T10">
-        <v>0.07760024846335226</v>
+        <v>0.1021136246059115</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.17437859783556</v>
+        <v>4.424154666666666</v>
       </c>
       <c r="H11">
-        <v>6.17437859783556</v>
+        <v>13.272464</v>
       </c>
       <c r="I11">
-        <v>0.1637247678446104</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="J11">
-        <v>0.1637247678446104</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>10.2003941619526</v>
+        <v>0.8192526666666667</v>
       </c>
       <c r="N11">
-        <v>10.2003941619526</v>
+        <v>2.457758</v>
       </c>
       <c r="O11">
-        <v>0.5260323194533285</v>
+        <v>0.03935738656594369</v>
       </c>
       <c r="P11">
-        <v>0.5260323194533285</v>
+        <v>0.03935738656594368</v>
       </c>
       <c r="Q11">
-        <v>62.98109540304692</v>
+        <v>3.624500508412444</v>
       </c>
       <c r="R11">
-        <v>62.98109540304692</v>
+        <v>32.620504575712</v>
       </c>
       <c r="S11">
-        <v>0.08612451938125816</v>
+        <v>0.004327630253934732</v>
       </c>
       <c r="T11">
-        <v>0.08612451938125816</v>
+        <v>0.004327630253934732</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.17195334133222</v>
+        <v>4.424154666666666</v>
       </c>
       <c r="H12">
-        <v>5.17195334133222</v>
+        <v>13.272464</v>
       </c>
       <c r="I12">
-        <v>0.137143656919518</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="J12">
-        <v>0.137143656919518</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.190798707248311</v>
+        <v>9.221608999999999</v>
       </c>
       <c r="N12">
-        <v>9.190798707248311</v>
+        <v>27.664827</v>
       </c>
       <c r="O12">
-        <v>0.4739676805466714</v>
+        <v>0.4430115945178313</v>
       </c>
       <c r="P12">
-        <v>0.4739676805466714</v>
+        <v>0.4430115945178313</v>
       </c>
       <c r="Q12">
-        <v>47.53438208346474</v>
+        <v>40.79782449152533</v>
       </c>
       <c r="R12">
-        <v>47.53438208346474</v>
+        <v>367.180420423728</v>
       </c>
       <c r="S12">
-        <v>0.06500166097183244</v>
+        <v>0.04871233957739958</v>
       </c>
       <c r="T12">
-        <v>0.06500166097183244</v>
+        <v>0.04871233957739958</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.17195334133222</v>
+        <v>4.424154666666666</v>
       </c>
       <c r="H13">
-        <v>5.17195334133222</v>
+        <v>13.272464</v>
       </c>
       <c r="I13">
-        <v>0.137143656919518</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="J13">
-        <v>0.137143656919518</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.2003941619526</v>
+        <v>10.77486666666667</v>
       </c>
       <c r="N13">
-        <v>10.2003941619526</v>
+        <v>32.3246</v>
       </c>
       <c r="O13">
-        <v>0.5260323194533285</v>
+        <v>0.5176310189162251</v>
       </c>
       <c r="P13">
-        <v>0.5260323194533285</v>
+        <v>0.517631018916225</v>
       </c>
       <c r="Q13">
-        <v>52.75596266881642</v>
+        <v>47.66967664604445</v>
       </c>
       <c r="R13">
-        <v>52.75596266881642</v>
+        <v>429.0270898144</v>
       </c>
       <c r="S13">
-        <v>0.07214199594768561</v>
+        <v>0.05691728677369321</v>
       </c>
       <c r="T13">
-        <v>0.07214199594768561</v>
+        <v>0.0569172867736932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.203087666666668</v>
+      </c>
+      <c r="H14">
+        <v>18.609263</v>
+      </c>
+      <c r="I14">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="J14">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.8192526666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.457758</v>
+      </c>
+      <c r="O14">
+        <v>0.03935738656594369</v>
+      </c>
+      <c r="P14">
+        <v>0.03935738656594368</v>
+      </c>
+      <c r="Q14">
+        <v>5.081896112483779</v>
+      </c>
+      <c r="R14">
+        <v>45.73706501235401</v>
+      </c>
+      <c r="S14">
+        <v>0.006067751215013899</v>
+      </c>
+      <c r="T14">
+        <v>0.006067751215013899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.203087666666668</v>
+      </c>
+      <c r="H15">
+        <v>18.609263</v>
+      </c>
+      <c r="I15">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="J15">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.221608999999999</v>
+      </c>
+      <c r="N15">
+        <v>27.664827</v>
+      </c>
+      <c r="O15">
+        <v>0.4430115945178313</v>
+      </c>
+      <c r="P15">
+        <v>0.4430115945178313</v>
+      </c>
+      <c r="Q15">
+        <v>57.20244905472234</v>
+      </c>
+      <c r="R15">
+        <v>514.8220414925011</v>
+      </c>
+      <c r="S15">
+        <v>0.06829935560881066</v>
+      </c>
+      <c r="T15">
+        <v>0.06829935560881067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.203087666666668</v>
+      </c>
+      <c r="H16">
+        <v>18.609263</v>
+      </c>
+      <c r="I16">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="J16">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.77486666666667</v>
+      </c>
+      <c r="N16">
+        <v>32.3246</v>
+      </c>
+      <c r="O16">
+        <v>0.5176310189162251</v>
+      </c>
+      <c r="P16">
+        <v>0.517631018916225</v>
+      </c>
+      <c r="Q16">
+        <v>66.83744252997779</v>
+      </c>
+      <c r="R16">
+        <v>601.5369827698001</v>
+      </c>
+      <c r="S16">
+        <v>0.07980347573879865</v>
+      </c>
+      <c r="T16">
+        <v>0.07980347573879865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.236355333333333</v>
+      </c>
+      <c r="H17">
+        <v>15.709066</v>
+      </c>
+      <c r="I17">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="J17">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.8192526666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.457758</v>
+      </c>
+      <c r="O17">
+        <v>0.03935738656594369</v>
+      </c>
+      <c r="P17">
+        <v>0.03935738656594368</v>
+      </c>
+      <c r="Q17">
+        <v>4.289898070447555</v>
+      </c>
+      <c r="R17">
+        <v>38.609082634028</v>
+      </c>
+      <c r="S17">
+        <v>0.005122110655765008</v>
+      </c>
+      <c r="T17">
+        <v>0.005122110655765008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.236355333333333</v>
+      </c>
+      <c r="H18">
+        <v>15.709066</v>
+      </c>
+      <c r="I18">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="J18">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.221608999999999</v>
+      </c>
+      <c r="N18">
+        <v>27.664827</v>
+      </c>
+      <c r="O18">
+        <v>0.4430115945178313</v>
+      </c>
+      <c r="P18">
+        <v>0.4430115945178313</v>
+      </c>
+      <c r="Q18">
+        <v>48.28762146906466</v>
+      </c>
+      <c r="R18">
+        <v>434.588593221582</v>
+      </c>
+      <c r="S18">
+        <v>0.05765510891088362</v>
+      </c>
+      <c r="T18">
+        <v>0.05765510891088362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.236355333333333</v>
+      </c>
+      <c r="H19">
+        <v>15.709066</v>
+      </c>
+      <c r="I19">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="J19">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10.77486666666667</v>
+      </c>
+      <c r="N19">
+        <v>32.3246</v>
+      </c>
+      <c r="O19">
+        <v>0.5176310189162251</v>
+      </c>
+      <c r="P19">
+        <v>0.517631018916225</v>
+      </c>
+      <c r="Q19">
+        <v>56.42103053595556</v>
+      </c>
+      <c r="R19">
+        <v>507.7892748236001</v>
+      </c>
+      <c r="S19">
+        <v>0.06736634693218031</v>
+      </c>
+      <c r="T19">
+        <v>0.06736634693218031</v>
       </c>
     </row>
   </sheetData>
